--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43223,6 +43223,41 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43258,6 +43258,41 @@
         <v>2600</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>30700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43293,6 +43293,41 @@
         <v>30700</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>5700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43328,6 +43328,41 @@
         <v>5700</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>7100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43363,6 +43363,41 @@
         <v>7100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>87600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43398,6 +43398,41 @@
         <v>87600</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>13800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43433,6 +43433,41 @@
         <v>13800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>4300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43468,6 +43468,41 @@
         <v>4300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>12300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43503,6 +43503,41 @@
         <v>12300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>54400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43538,6 +43538,41 @@
         <v>54400</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>26500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43573,6 +43573,41 @@
         <v>26500</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>15800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43608,6 +43608,41 @@
         <v>15800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>8800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43643,6 +43643,76 @@
         <v>8800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>130400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>131900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43713,6 +43713,76 @@
         <v>131900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>8000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43783,6 +43783,41 @@
         <v>8000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>24600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43818,6 +43818,41 @@
         <v>24600</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43853,6 +43853,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>67600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43888,6 +43888,41 @@
         <v>67600</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>136300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43923,6 +43923,76 @@
         <v>136300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>92500</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43993,6 +43993,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>154000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44028,6 +44028,41 @@
         <v>154000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>218100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2319"/>
+  <dimension ref="A1:I2320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81793,6 +81793,41 @@
         <v>218100</v>
       </c>
     </row>
+    <row r="2320">
+      <c r="A2320" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2320" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2320" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2320" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2320" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2320" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2320" t="n">
+        <v>817100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2320"/>
+  <dimension ref="A1:I2321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81828,6 +81828,41 @@
         <v>817100</v>
       </c>
     </row>
+    <row r="2321">
+      <c r="A2321" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2321" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2321" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2321" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2321" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H2321" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="I2321" t="n">
+        <v>76000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2321"/>
+  <dimension ref="A1:I2322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81863,6 +81863,41 @@
         <v>76000</v>
       </c>
     </row>
+    <row r="2322">
+      <c r="A2322" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2322" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2322" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2322" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2322" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H2322" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I2322" t="n">
+        <v>49000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2322"/>
+  <dimension ref="A1:I2323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81898,6 +81898,41 @@
         <v>49000</v>
       </c>
     </row>
+    <row r="2323">
+      <c r="A2323" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2323" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2323" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2323" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2323" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H2323" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I2323" t="n">
+        <v>330200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2323"/>
+  <dimension ref="A1:I2324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81933,6 +81933,41 @@
         <v>330200</v>
       </c>
     </row>
+    <row r="2324">
+      <c r="A2324" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2324" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2324" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2324" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2324" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="H2324" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="I2324" t="n">
+        <v>13500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2324"/>
+  <dimension ref="A1:I2325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81968,6 +81968,41 @@
         <v>13500</v>
       </c>
     </row>
+    <row r="2325">
+      <c r="A2325" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2325" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2325" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2325" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2325" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2325" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2325"/>
+  <dimension ref="A1:I2326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82003,6 +82003,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2326">
+      <c r="A2326" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2326" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2326" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2326" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2326" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2326" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2326" t="n">
+        <v>113000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2326"/>
+  <dimension ref="A1:I2327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82038,6 +82038,41 @@
         <v>113000</v>
       </c>
     </row>
+    <row r="2327">
+      <c r="A2327" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2327" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2327" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2327" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2327" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H2327" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I2327" t="n">
+        <v>49000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2327"/>
+  <dimension ref="A1:I2328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82073,6 +82073,41 @@
         <v>49000</v>
       </c>
     </row>
+    <row r="2328">
+      <c r="A2328" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2328" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2328" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2328" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2328" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2328" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I2328" t="n">
+        <v>34500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2328"/>
+  <dimension ref="A1:I2329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82108,6 +82108,41 @@
         <v>34500</v>
       </c>
     </row>
+    <row r="2329">
+      <c r="A2329" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2329" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2329" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2329" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2329" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2329" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I2329" t="n">
+        <v>86300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2329"/>
+  <dimension ref="A1:I2330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82143,6 +82143,41 @@
         <v>86300</v>
       </c>
     </row>
+    <row r="2330">
+      <c r="A2330" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2330" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2330" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2330" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2330" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2330" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2330" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2330"/>
+  <dimension ref="A1:I2331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82178,6 +82178,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2331">
+      <c r="A2331" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2331" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2331" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2331" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H2331" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2331" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2331"/>
+  <dimension ref="A1:I2332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82215,6 +82215,41 @@
         </is>
       </c>
     </row>
+    <row r="2332">
+      <c r="A2332" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2332" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2332" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2332" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H2332" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="I2332" t="n">
+        <v>1300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2332"/>
+  <dimension ref="A1:I2333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82250,6 +82250,41 @@
         <v>1300</v>
       </c>
     </row>
+    <row r="2333">
+      <c r="A2333" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2333" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2333" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2333" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2333" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="H2333" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I2333" t="n">
+        <v>1800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/6971.xlsx
+++ b/data/6971.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2333"/>
+  <dimension ref="A1:I2334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82285,6 +82285,43 @@
         <v>1800</v>
       </c>
     </row>
+    <row r="2334">
+      <c r="A2334" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2334" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2334" t="inlineStr">
+        <is>
+          <t>6971</t>
+        </is>
+      </c>
+      <c r="D2334" t="inlineStr">
+        <is>
+          <t>KOBAY</t>
+        </is>
+      </c>
+      <c r="E2334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H2334" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I2334" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
